--- a/data/trans_orig/P14B21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14BB391B-DB4B-4C84-ADC6-EAADF45EB7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5524DE49-C9B7-4243-9F9B-8EECEBE5787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89AB88AD-F878-46AA-BCA6-59FD91B363E4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A89F5A99-0756-4737-9CF0-4D3FFD2A6C83}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="363">
   <si>
     <t>Población cuyas migrañas le limita en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>76,17%</t>
+    <t>77,34%</t>
   </si>
   <si>
     <t>46,86%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>67,0%</t>
   </si>
   <si>
-    <t>23,83%</t>
+    <t>22,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>53,14%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -148,19 +148,19 @@
     <t>53,11%</t>
   </si>
   <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>52,03%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>51,13%</t>
@@ -175,19 +175,19 @@
     <t>46,89%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>47,97%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,49 +196,43 @@
     <t>80,36%</t>
   </si>
   <si>
-    <t>46,84%</t>
+    <t>42,52%</t>
   </si>
   <si>
     <t>73,27%</t>
   </si>
   <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>74,58%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>53,16%</t>
-  </si>
-  <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
+    <t>15,94%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -247,910 +241,892 @@
     <t>50,03%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>50,47%</t>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>80,82%</t>
   </si>
   <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
   </si>
   <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56922776-9401-409A-89ED-05E2A50A1396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDAE1CE-7D5F-428E-B496-A195FFE6E0B8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2053,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -2062,13 +2038,13 @@
         <v>13174</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2077,13 +2053,13 @@
         <v>15370</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,7 +2115,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2151,13 +2127,13 @@
         <v>3100</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2166,13 +2142,13 @@
         <v>24267</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2181,13 +2157,13 @@
         <v>27367</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2178,13 @@
         <v>3096</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2217,13 +2193,13 @@
         <v>10370</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2232,13 +2208,13 @@
         <v>13466</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2270,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2306,13 +2282,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2321,13 +2297,13 @@
         <v>14223</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -2336,13 +2312,13 @@
         <v>15169</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,10 +2333,10 @@
         <v>3296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -2372,13 +2348,13 @@
         <v>7698</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2387,13 +2363,13 @@
         <v>10995</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,7 +2425,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2461,10 +2437,10 @@
         <v>3258</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>23</v>
@@ -2476,13 +2452,13 @@
         <v>27580</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -2491,13 +2467,13 @@
         <v>30838</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2488,13 @@
         <v>2034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -2527,13 +2503,13 @@
         <v>19213</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -2542,13 +2518,13 @@
         <v>21247</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2592,13 @@
         <v>22208</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -2631,13 +2607,13 @@
         <v>120459</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -2646,13 +2622,13 @@
         <v>142668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2643,13 @@
         <v>19078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -2682,13 +2658,13 @@
         <v>68278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>83</v>
@@ -2697,13 +2673,13 @@
         <v>87356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2735,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE543D6-F1FE-41E3-893D-B5CED1E46514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556D4EBC-5375-4B4A-A8E2-5D09E4EF8F67}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2798,7 +2774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2905,7 +2881,7 @@
         <v>1990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2920,13 +2896,13 @@
         <v>5718</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2935,13 +2911,13 @@
         <v>7708</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2932,7 @@
         <v>1932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2971,13 +2947,13 @@
         <v>2903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2986,13 +2962,13 @@
         <v>4835</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,10 +3036,10 @@
         <v>3295</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -3075,13 +3051,13 @@
         <v>20037</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3090,13 +3066,13 @@
         <v>23332</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3087,13 @@
         <v>951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -3126,13 +3102,13 @@
         <v>17274</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -3141,13 +3117,13 @@
         <v>18225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3191,13 @@
         <v>3589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3230,13 +3206,13 @@
         <v>15464</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3245,13 +3221,13 @@
         <v>19054</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3242,13 @@
         <v>3951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3281,13 +3257,13 @@
         <v>4715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -3296,13 +3272,13 @@
         <v>8666</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,7 +3334,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3370,13 +3346,13 @@
         <v>7043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3385,13 +3361,13 @@
         <v>26382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3400,13 +3376,13 @@
         <v>33426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3397,13 @@
         <v>4269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3436,13 +3412,13 @@
         <v>8290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3451,13 +3427,13 @@
         <v>12558</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3489,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3525,10 +3501,10 @@
         <v>8551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>23</v>
@@ -3540,13 +3516,13 @@
         <v>14331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3555,13 +3531,13 @@
         <v>22883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3552,13 @@
         <v>2205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3591,13 +3567,13 @@
         <v>20702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3606,13 +3582,13 @@
         <v>22906</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3644,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3680,13 +3656,13 @@
         <v>4650</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -3695,13 +3671,13 @@
         <v>45683</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -3710,13 +3686,13 @@
         <v>50334</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3707,13 @@
         <v>5449</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3746,13 +3722,13 @@
         <v>13199</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -3761,13 +3737,13 @@
         <v>18647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3811,13 @@
         <v>29119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>116</v>
@@ -3850,13 +3826,13 @@
         <v>127617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -3865,13 +3841,13 @@
         <v>156736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3862,13 @@
         <v>18756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -3901,13 +3877,13 @@
         <v>67082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
         <v>81</v>
@@ -3916,13 +3892,13 @@
         <v>85838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3954,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4000,7 +3976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E91BDD7-3274-4324-8CD7-D79C15546339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B261089D-A97E-492B-B61E-7F83CBD9B619}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4017,7 +3993,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4124,13 +4100,13 @@
         <v>4769</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4139,13 +4115,13 @@
         <v>21160</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4154,13 +4130,13 @@
         <v>25928</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,10 +4151,10 @@
         <v>6990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4190,13 +4166,13 @@
         <v>14131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4205,13 +4181,13 @@
         <v>21122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4255,13 @@
         <v>13433</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4294,13 +4270,13 @@
         <v>26212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4309,13 +4285,13 @@
         <v>39644</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4306,13 @@
         <v>5770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -4345,13 +4321,13 @@
         <v>27158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4360,13 +4336,13 @@
         <v>32929</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4410,13 @@
         <v>11947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4449,13 +4425,13 @@
         <v>35294</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4464,13 +4440,13 @@
         <v>47241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4461,13 @@
         <v>17558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -4500,13 +4476,13 @@
         <v>24439</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -4515,13 +4491,13 @@
         <v>41997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4553,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4589,13 +4565,13 @@
         <v>20733</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -4604,13 +4580,13 @@
         <v>79755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -4619,13 +4595,13 @@
         <v>100488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4616,13 @@
         <v>22422</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -4655,13 +4631,13 @@
         <v>32511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -4670,13 +4646,13 @@
         <v>54933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4708,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4744,13 +4720,13 @@
         <v>13702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -4759,13 +4735,13 @@
         <v>49857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -4774,13 +4750,13 @@
         <v>63560</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4771,13 @@
         <v>11085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4810,13 +4786,13 @@
         <v>21413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -4825,13 +4801,13 @@
         <v>32497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4863,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4899,13 +4875,13 @@
         <v>17966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4914,13 +4890,13 @@
         <v>63100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -4929,13 +4905,13 @@
         <v>81066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4926,13 @@
         <v>8084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -4965,13 +4941,13 @@
         <v>22660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -4980,13 +4956,13 @@
         <v>30744</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5030,13 @@
         <v>82549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>409</v>
@@ -5069,13 +5045,13 @@
         <v>275378</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>494</v>
@@ -5084,13 +5060,13 @@
         <v>357927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5081,13 @@
         <v>71910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H23" s="7">
         <v>205</v>
@@ -5120,13 +5096,13 @@
         <v>142312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>218</v>
+        <v>357</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M23" s="7">
         <v>275</v>
@@ -5135,13 +5111,13 @@
         <v>214223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,7 +5173,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B21-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5524DE49-C9B7-4243-9F9B-8EECEBE5787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4DCDCE2-4568-40B2-B2CC-43D14284C31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A89F5A99-0756-4737-9CF0-4D3FFD2A6C83}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E96DE867-1B6C-4201-809A-7F153A8BB256}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="371">
   <si>
     <t>Población cuyas migrañas le limita en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>77,34%</t>
+    <t>77,63%</t>
   </si>
   <si>
     <t>46,86%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>67,0%</t>
   </si>
   <si>
-    <t>22,66%</t>
+    <t>22,37%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>53,14%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>48,87%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>53,11%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>52,03%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>46,89%</t>
   </si>
   <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>47,97%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,43 +196,49 @@
     <t>80,36%</t>
   </si>
   <si>
-    <t>42,52%</t>
+    <t>43,06%</t>
   </si>
   <si>
     <t>73,27%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
   </si>
   <si>
     <t>74,58%</t>
   </si>
   <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
+    <t>56,94%</t>
+  </si>
+  <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>15,94%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -241,55 +247,55 @@
     <t>50,03%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>49,97%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>32,98%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -298,49 +304,49 @@
     <t>22,31%</t>
   </si>
   <si>
-    <t>88,79%</t>
+    <t>92,31%</t>
   </si>
   <si>
     <t>64,88%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>57,98%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>77,69%</t>
   </si>
   <si>
-    <t>11,21%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>35,12%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>42,02%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -349,706 +355,724 @@
     <t>61,56%</t>
   </si>
   <si>
+    <t>19,24%</t>
+  </si>
+  <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
+    <t>80,76%</t>
+  </si>
+  <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2016 (Tasa respuesta: 3,41%)</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
     <t>38,55%</t>
   </si>
   <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
     <t>68,97%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>31,03%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
   </si>
   <si>
     <t>18,06%</t>
@@ -1538,7 +1562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDAE1CE-7D5F-428E-B496-A195FFE6E0B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214F76B-7B4C-4272-8040-0B2B4DD2AA92}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2029,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -2038,13 +2062,13 @@
         <v>13174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2053,13 +2077,13 @@
         <v>15370</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,7 +2139,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2127,13 +2151,13 @@
         <v>3100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2142,13 +2166,13 @@
         <v>24267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2157,13 +2181,13 @@
         <v>27367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2202,13 @@
         <v>3096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2193,13 +2217,13 @@
         <v>10370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2208,13 +2232,13 @@
         <v>13466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2294,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2282,13 +2306,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2297,13 +2321,13 @@
         <v>14223</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -2312,13 +2336,13 @@
         <v>15169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,10 +2357,10 @@
         <v>3296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -2348,13 +2372,13 @@
         <v>7698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2363,13 +2387,13 @@
         <v>10995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2449,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2437,10 +2461,10 @@
         <v>3258</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>23</v>
@@ -2452,13 +2476,13 @@
         <v>27580</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -2467,13 +2491,13 @@
         <v>30838</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2512,13 @@
         <v>2034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -2503,13 +2527,13 @@
         <v>19213</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -2518,13 +2542,13 @@
         <v>21247</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2616,13 @@
         <v>22208</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -2607,13 +2631,13 @@
         <v>120459</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -2622,13 +2646,13 @@
         <v>142668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2667,13 @@
         <v>19078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -2658,13 +2682,13 @@
         <v>68278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>83</v>
@@ -2673,13 +2697,13 @@
         <v>87356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2759,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2757,7 +2781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556D4EBC-5375-4B4A-A8E2-5D09E4EF8F67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF93F0AA-6FE9-4289-BD4B-A1AB1B965EAA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2774,7 +2798,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2881,7 +2905,7 @@
         <v>1990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2896,13 +2920,13 @@
         <v>5718</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2911,13 +2935,13 @@
         <v>7708</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,7 +2956,7 @@
         <v>1932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2947,13 +2971,13 @@
         <v>2903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2962,13 +2986,13 @@
         <v>4835</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,10 +3060,10 @@
         <v>3295</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -3051,13 +3075,13 @@
         <v>20037</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3066,13 +3090,13 @@
         <v>23332</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3111,13 @@
         <v>951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -3102,13 +3126,13 @@
         <v>17274</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -3117,13 +3141,13 @@
         <v>18225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3215,13 @@
         <v>3589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3206,13 +3230,13 @@
         <v>15464</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3221,13 +3245,13 @@
         <v>19054</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3266,13 @@
         <v>3951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3257,13 +3281,13 @@
         <v>4715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -3272,13 +3296,13 @@
         <v>8666</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3358,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3346,13 +3370,13 @@
         <v>7043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3361,13 +3385,13 @@
         <v>26382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3376,13 +3400,13 @@
         <v>33426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3421,13 @@
         <v>4269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3412,13 +3436,13 @@
         <v>8290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3427,13 +3451,13 @@
         <v>12558</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3513,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3501,10 +3525,10 @@
         <v>8551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>23</v>
@@ -3516,13 +3540,13 @@
         <v>14331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3531,13 +3555,13 @@
         <v>22883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3576,13 @@
         <v>2205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3567,13 +3591,13 @@
         <v>20702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3582,13 +3606,13 @@
         <v>22906</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3668,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3656,13 +3680,13 @@
         <v>4650</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -3671,13 +3695,13 @@
         <v>45683</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -3686,13 +3710,13 @@
         <v>50334</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3731,13 @@
         <v>5449</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3722,13 +3746,13 @@
         <v>13199</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -3737,13 +3761,13 @@
         <v>18647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3835,13 @@
         <v>29119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>116</v>
@@ -3826,13 +3850,13 @@
         <v>127617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -3841,13 +3865,13 @@
         <v>156736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3886,13 @@
         <v>18756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -3877,13 +3901,13 @@
         <v>67082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>81</v>
@@ -3892,13 +3916,13 @@
         <v>85838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,7 +3978,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3976,7 +4000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B261089D-A97E-492B-B61E-7F83CBD9B619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117ED1AE-E4A0-4AE5-8713-1C0020B4DDA4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3993,7 +4017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4100,13 +4124,13 @@
         <v>4769</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4115,13 +4139,13 @@
         <v>21160</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4130,13 +4154,13 @@
         <v>25928</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,10 +4175,10 @@
         <v>6990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4166,13 +4190,13 @@
         <v>14131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4181,13 +4205,13 @@
         <v>21122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4279,13 @@
         <v>13433</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4270,13 +4294,13 @@
         <v>26212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4285,13 +4309,13 @@
         <v>39644</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4330,13 @@
         <v>5770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -4321,13 +4345,13 @@
         <v>27158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4336,13 +4360,13 @@
         <v>32929</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4434,13 @@
         <v>11947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4425,13 +4449,13 @@
         <v>35294</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4440,13 +4464,13 @@
         <v>47241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4485,13 @@
         <v>17558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -4476,13 +4500,13 @@
         <v>24439</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -4491,13 +4515,13 @@
         <v>41997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,7 +4577,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4565,13 +4589,13 @@
         <v>20733</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -4580,13 +4604,13 @@
         <v>79755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -4595,13 +4619,13 @@
         <v>100488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4640,13 @@
         <v>22422</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -4631,13 +4655,13 @@
         <v>32511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -4646,13 +4670,13 @@
         <v>54933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4732,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4720,13 +4744,13 @@
         <v>13702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -4735,13 +4759,13 @@
         <v>49857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -4750,13 +4774,13 @@
         <v>63560</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4795,13 @@
         <v>11085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4786,13 +4810,13 @@
         <v>21413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -4801,13 +4825,13 @@
         <v>32497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,7 +4887,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4875,13 +4899,13 @@
         <v>17966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4890,13 +4914,13 @@
         <v>63100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -4905,13 +4929,13 @@
         <v>81066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4950,13 @@
         <v>8084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -4941,13 +4965,13 @@
         <v>22660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -4956,13 +4980,13 @@
         <v>30744</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5054,13 @@
         <v>82549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>409</v>
@@ -5045,13 +5069,13 @@
         <v>275378</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>494</v>
@@ -5060,13 +5084,13 @@
         <v>357927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5105,13 @@
         <v>71910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H23" s="7">
         <v>205</v>
@@ -5096,13 +5120,13 @@
         <v>142312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M23" s="7">
         <v>275</v>
@@ -5111,13 +5135,13 @@
         <v>214223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,7 +5197,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
